--- a/Inbox/Dummy_FILE_B.xlsx
+++ b/Inbox/Dummy_FILE_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Python\Catalog Updater\Inbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D359022-F222-4440-B2E9-484994155C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C9B2D4-FAC8-43CB-9797-9124C56F3A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{6A84965A-1668-4882-9922-9410E68867C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A84965A-1668-4882-9922-9410E68867C3}"/>
   </bookViews>
   <sheets>
     <sheet name="File B" sheetId="1" r:id="rId1"/>
@@ -819,7 +819,7 @@
   <dimension ref="A1:AT12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>32356568</v>
+        <v>22222222</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -1050,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="7">
-        <v>112.17</v>
+        <v>222.17</v>
       </c>
       <c r="Q2" s="7">
-        <v>7.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R2" t="s">
         <v>99</v>
